--- a/Data/EC/NIT-9002819067.xlsx
+++ b/Data/EC/NIT-9002819067.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063F0158-EB56-486F-AE68-84287FFA20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4518DB9-21D6-45E2-B67E-B4141F90C888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51AF32E2-190D-40C1-8492-8BF26217CF8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3CB96A38-1D63-461C-8029-5DA9020478A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,90 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051443518</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL RODRIGUEZ DEVOZ</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>73138476</t>
   </si>
   <si>
@@ -72,90 +156,6 @@
   </si>
   <si>
     <t>1701</t>
-  </si>
-  <si>
-    <t>1051443518</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL RODRIGUEZ DEVOZ</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55AB550-6574-834B-D325-B6C757CCFA30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AA4256-AC29-0084-28C8-084F988B2962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A898E1-1D46-4784-9195-5ECA71989D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FEAE19-9BB9-48C1-BBFE-CAEEA9EB0233}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1098,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>33333</v>
       </c>
       <c r="G16" s="18">
-        <v>689454</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,16 +1112,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>14667</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1158,13 +1158,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1181,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1204,13 +1204,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1227,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1250,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1273,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1296,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1319,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1342,13 +1342,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1365,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1388,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1411,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1434,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1457,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1480,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1503,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1526,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1549,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1572,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1618,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1641,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1664,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>14667</v>
       </c>
       <c r="G41" s="18">
         <v>1000000</v>
@@ -1687,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="24">
-        <v>33333</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="24">
-        <v>1000000</v>
+        <v>689454</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>

--- a/Data/EC/NIT-9002819067.xlsx
+++ b/Data/EC/NIT-9002819067.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4518DB9-21D6-45E2-B67E-B4141F90C888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8502AD23-DC10-43EA-88EE-E559DA5C82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3CB96A38-1D63-461C-8029-5DA9020478A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CEA92B4-1353-48B5-9131-065FBC052397}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,97 +65,97 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73138476</t>
+  </si>
+  <si>
+    <t>AROLDO SANJUAN LIÑAN</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1051443518</t>
   </si>
   <si>
     <t>LUIS GABRIEL RODRIGUEZ DEVOZ</t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>73138476</t>
-  </si>
-  <si>
-    <t>AROLDO SANJUAN LIÑAN</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AA4256-AC29-0084-28C8-084F988B2962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBB2546-8E6A-D531-9EFF-4F7AF35E8C7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FEAE19-9BB9-48C1-BBFE-CAEEA9EB0233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06334332-8CB8-4939-8D4A-806181270DE3}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1098,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33333</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,16 +1112,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>14667</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1158,13 +1158,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1181,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1204,13 +1204,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1227,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1250,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1273,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1296,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1319,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1342,13 +1342,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1365,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1388,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1411,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1434,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1457,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1480,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1503,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1526,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1549,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1572,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1618,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1641,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1664,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>14667</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
         <v>1000000</v>
@@ -1687,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="24">
-        <v>27578</v>
+        <v>33333</v>
       </c>
       <c r="G42" s="24">
-        <v>689454</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
